--- a/data/trans_dic/P34C_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34C_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,88; 67,99</t>
+          <t>52,39; 68,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,81; 55,96</t>
+          <t>41,4; 56,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,54; 60,16</t>
+          <t>49,33; 60,42</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,25; 58,43</t>
+          <t>45,81; 58,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,45; 45,04</t>
+          <t>34,78; 44,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,88; 49,85</t>
+          <t>41,77; 49,73</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,09; 54,05</t>
+          <t>45,59; 54,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,93; 48,9</t>
+          <t>42,14; 49,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,81; 50,28</t>
+          <t>44,89; 50,39</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,47; 47,6</t>
+          <t>33,59; 47,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,26; 49,79</t>
+          <t>43,37; 49,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,12; 47,67</t>
+          <t>39,16; 47,76</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,05; 46,03</t>
+          <t>37,99; 45,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,98; 43,45</t>
+          <t>37,2; 43,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,32; 43,28</t>
+          <t>38,27; 43,34</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,37; 35,28</t>
+          <t>29,23; 34,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,65; 29,91</t>
+          <t>19,02; 30,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,06; 31,1</t>
+          <t>22,2; 31,12</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,16; 46,75</t>
+          <t>42,06; 46,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,84; 41,0</t>
+          <t>35,48; 41,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,17; 43,12</t>
+          <t>39,33; 43,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34C_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34C_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>60,58%</t>
+          <t>61,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>48,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,39; 68,17</t>
+          <t>52,69; 68,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,4; 56,65</t>
+          <t>41,74; 56,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,33; 60,42</t>
+          <t>50,38; 61,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,01%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>43,55%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,81; 58,33</t>
+          <t>46,3; 58,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,78; 44,88</t>
+          <t>22,08; 43,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,77; 49,73</t>
+          <t>32,82; 49,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>50,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>45,62%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>48,26%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,59; 54,71</t>
+          <t>46,29; 55,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,14; 49,2</t>
+          <t>42,9; 49,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,89; 50,39</t>
+          <t>45,57; 51,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>45,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>38,92%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,59; 47,58</t>
+          <t>15,22; 47,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,37; 49,85</t>
+          <t>38,65; 49,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,16; 47,76</t>
+          <t>22,54; 46,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>41,3%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,99; 45,8</t>
+          <t>38,43; 46,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,2; 43,23</t>
+          <t>37,66; 43,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,27; 43,34</t>
+          <t>38,77; 43,79</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>35,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>28,98%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,23; 34,99</t>
+          <t>32,04; 39,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,02; 30,05</t>
+          <t>8,45; 38,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,2; 31,12</t>
+          <t>13,78; 37,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>24,18%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,06; 46,71</t>
+          <t>23,88; 32,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35,48; 41,12</t>
+          <t>18,77; 24,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,33; 43,34</t>
+          <t>21,82; 26,73</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>42,83%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>37,67%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>40,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>34,03; 46,72</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>30,46; 40,9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>35,25; 43,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
